--- a/data/月报.xlsx
+++ b/data/月报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="15420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27660" windowHeight="12080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -193,6 +193,12 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="33">
@@ -660,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,9 +682,6 @@
     <xf numFmtId="57" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,8 +694,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,13 +1315,13 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.89423076923077" defaultRowHeight="16.8"/>
   <cols>
     <col width="20.0288461538462" customWidth="1" style="2" min="1" max="1"/>
-    <col width="14.4230769230769" customWidth="1" style="15" min="2" max="2"/>
+    <col width="14.4230769230769" customWidth="1" style="14" min="2" max="2"/>
     <col width="11.5384615384615" customWidth="1" style="2" min="3" max="3"/>
     <col width="11.3653846153846" customWidth="1" style="2" min="4" max="4"/>
     <col width="40" customWidth="1" style="1" min="5" max="5"/>
@@ -1337,825 +1340,825 @@
       </c>
     </row>
     <row r="2" customFormat="1" s="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>主体</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>月份</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>姓名</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>部门</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>项目名称</t>
         </is>
       </c>
-      <c r="F2" s="17" t="inlineStr">
+      <c r="F2" s="16" t="inlineStr">
         <is>
           <t>出勤日期</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>工作内容</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>工时(小时）</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="1">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B3" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="12" t="inlineStr">
+    <row r="3" ht="17" customFormat="1" customHeight="1" s="1">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B3" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>2025/7/1</t>
         </is>
       </c>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="14" t="n"/>
-    </row>
-    <row r="4" customFormat="1" s="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B4" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="G3" s="12" t="n"/>
+      <c r="H3" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13" t="n"/>
+    </row>
+    <row r="4" ht="17" customFormat="1" customHeight="1" s="1">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>2025/7/2</t>
         </is>
       </c>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14" t="n"/>
+      <c r="G4" s="12" t="n"/>
+      <c r="H4" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="n"/>
     </row>
     <row r="5" customFormat="1" s="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B5" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>2025/7/3</t>
         </is>
       </c>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" s="14" t="n"/>
-    </row>
-    <row r="6" customFormat="1" s="1">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B6" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13" t="n"/>
+    </row>
+    <row r="6" ht="51" customFormat="1" customHeight="1" s="1">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>2025/7/4</t>
         </is>
       </c>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>优化场地表格和订单模块状态管理。新增播放器组件并集成阿里云SDK。</t>
         </is>
       </c>
-      <c r="H6" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" s="14" t="n"/>
+      <c r="H6" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="13" t="n"/>
     </row>
     <row r="7" customFormat="1" s="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B7" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B7" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>2025/7/7</t>
         </is>
       </c>
-      <c r="G7" s="8" t="n"/>
-      <c r="H7" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" s="14" t="n"/>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="13" t="n"/>
     </row>
     <row r="8" customFormat="1" s="1">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>2025/7/8</t>
         </is>
       </c>
-      <c r="G8" s="8" t="n"/>
-      <c r="H8" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" s="14" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" s="13" t="n"/>
     </row>
     <row r="9" customFormat="1" s="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B9" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="n"/>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B9" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>2025/7/9</t>
         </is>
       </c>
-      <c r="G9" s="8" t="n"/>
-      <c r="H9" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I9" s="14" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" s="13" t="n"/>
     </row>
     <row r="10" customFormat="1" s="1">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B10" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B10" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>2025/7/10</t>
         </is>
       </c>
-      <c r="G10" s="8" t="n"/>
-      <c r="H10" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" s="14" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" s="13" t="n"/>
     </row>
     <row r="11" customFormat="1" s="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B11" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="12" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B11" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>2025/7/11</t>
         </is>
       </c>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" s="14" t="n"/>
+      <c r="G11" s="12" t="n"/>
+      <c r="H11" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="13" t="n"/>
     </row>
     <row r="12" customFormat="1" s="1">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="12" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B12" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>2025/7/14</t>
         </is>
       </c>
-      <c r="G12" s="13" t="n"/>
-      <c r="H12" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I12" s="14" t="n"/>
+      <c r="G12" s="12" t="n"/>
+      <c r="H12" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" s="13" t="n"/>
     </row>
     <row r="13" customFormat="1" s="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="12" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B13" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>2025/7/15</t>
         </is>
       </c>
-      <c r="G13" s="13" t="n"/>
-      <c r="H13" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" s="14" t="n"/>
+      <c r="G13" s="12" t="n"/>
+      <c r="H13" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="13" t="n"/>
     </row>
     <row r="14" customFormat="1" s="1">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B14" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="12" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B14" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>2025/7/16</t>
         </is>
       </c>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="I14" s="14" t="n"/>
+      <c r="G14" s="12" t="n"/>
+      <c r="H14" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" s="13" t="n"/>
     </row>
     <row r="15" customFormat="1" s="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="12" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B15" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>2025/7/17</t>
         </is>
       </c>
-      <c r="G15" s="13" t="n"/>
-      <c r="H15" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I15" s="14" t="n"/>
+      <c r="G15" s="12" t="n"/>
+      <c r="H15" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" s="13" t="n"/>
     </row>
     <row r="16" customFormat="1" s="1">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B16" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="12" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B16" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>2025/7/18</t>
         </is>
       </c>
-      <c r="G16" s="13" t="n"/>
-      <c r="H16" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I16" s="14" t="n"/>
+      <c r="G16" s="12" t="n"/>
+      <c r="H16" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" s="13" t="n"/>
     </row>
     <row r="17" customFormat="1" s="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B17" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="12" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>2025/7/21</t>
         </is>
       </c>
-      <c r="G17" s="13" t="n"/>
-      <c r="H17" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I17" s="14" t="n"/>
+      <c r="G17" s="12" t="n"/>
+      <c r="H17" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" s="13" t="n"/>
     </row>
     <row r="18" customFormat="1" s="1">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B18" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="12" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B18" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="11" t="inlineStr">
         <is>
           <t>2025/7/22</t>
         </is>
       </c>
-      <c r="G18" s="13" t="n"/>
-      <c r="H18" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I18" s="14" t="n"/>
+      <c r="G18" s="12" t="n"/>
+      <c r="H18" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" s="13" t="n"/>
     </row>
     <row r="19" customFormat="1" s="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B19" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="12" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B19" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>2025/7/23</t>
         </is>
       </c>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I19" s="14" t="n"/>
+      <c r="G19" s="12" t="n"/>
+      <c r="H19" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" s="13" t="n"/>
     </row>
     <row r="20" customFormat="1" s="1">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B20" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="12" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="11" t="inlineStr">
         <is>
           <t>2025/7/24</t>
         </is>
       </c>
-      <c r="G20" s="13" t="n"/>
-      <c r="H20" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I20" s="14" t="n"/>
+      <c r="G20" s="12" t="n"/>
+      <c r="H20" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="13" t="n"/>
     </row>
     <row r="21" customFormat="1" s="1">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B21" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="12" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>2025/7/25</t>
         </is>
       </c>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I21" s="14" t="n"/>
+      <c r="G21" s="12" t="n"/>
+      <c r="H21" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" s="13" t="n"/>
     </row>
     <row r="22" customFormat="1" s="1">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="12" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="11" t="inlineStr">
         <is>
           <t>2025/7/28</t>
         </is>
       </c>
-      <c r="G22" s="13" t="n"/>
-      <c r="H22" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I22" s="14" t="n"/>
+      <c r="G22" s="12" t="n"/>
+      <c r="H22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="13" t="n"/>
     </row>
     <row r="23" customFormat="1" s="1">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B23" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="12" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B23" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <t>2025/7/29</t>
         </is>
       </c>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I23" s="14" t="n"/>
+      <c r="G23" s="12" t="n"/>
+      <c r="H23" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" s="13" t="n"/>
     </row>
     <row r="24" customFormat="1" s="1">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B24" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="n"/>
-      <c r="F24" s="12" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B24" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="11" t="inlineStr">
         <is>
           <t>2025/7/30</t>
         </is>
       </c>
-      <c r="G24" s="13" t="n"/>
-      <c r="H24" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I24" s="14" t="n"/>
+      <c r="G24" s="12" t="n"/>
+      <c r="H24" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>宏珹芯长沙分</t>
-        </is>
-      </c>
-      <c r="B25" s="18" t="inlineStr">
-        <is>
-          <t>2025年7月</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>测试</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="n"/>
-      <c r="F25" s="12" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>宏珹芯</t>
+        </is>
+      </c>
+      <c r="B25" s="17" t="inlineStr">
+        <is>
+          <t>2025年7月</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="inlineStr">
+        <is>
+          <t>测试</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>研发部</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="n"/>
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>2025/7/31</t>
         </is>
       </c>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I25" s="14" t="n"/>
+      <c r="G25" s="12" t="n"/>
+      <c r="H25" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="n"/>
-      <c r="B26" s="18" t="n"/>
-      <c r="C26" s="8" t="n"/>
-      <c r="D26" s="8" t="n"/>
-      <c r="E26" s="8" t="n"/>
-      <c r="F26" s="12" t="n"/>
-      <c r="G26" s="13" t="n"/>
-      <c r="H26" s="8" t="n"/>
-      <c r="I26" s="14" t="n"/>
+      <c r="A26" s="9" t="n"/>
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="9" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="11" t="n"/>
+      <c r="G26" s="12" t="n"/>
+      <c r="H26" s="9" t="n"/>
+      <c r="I26" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
